--- a/UnitTests/Tests/Leg.xlsx
+++ b/UnitTests/Tests/Leg.xlsx
@@ -623,7 +623,7 @@
         <v>42645</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D48" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E3">
@@ -639,7 +639,7 @@
         <v>42647</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D48" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E4">
@@ -750,9 +750,9 @@
       <c r="B11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E11" t="e">
         <f>_xll.qlLegNextCouponRate(E36,TRUE,I37)</f>
@@ -936,7 +936,7 @@
       </c>
       <c r="G22" t="str">
         <f>_xll.qlFlatForward(,2,"target",1,"actual/360","continuous","annual")</f>
-        <v>obj_00001#0000</v>
+        <v>obj_00048#0000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1106,9 +1106,9 @@
       <c r="B33" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D33" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E33" t="e">
         <f>_xll.qlLegZSpread(E36,5,G22,,,,,I39,I38)</f>
@@ -1138,9 +1138,9 @@
       <c r="B35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D35" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E35" t="e">
         <f>NA()</f>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F37" t="str">
         <f>_xll.qlCapFloor(,"cap",E36,H37:H39)</f>
-        <v>obj_00005#0000</v>
+        <v>obj_0004b#0000</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F38" t="str">
         <f>_xll.qlSwap(,E36,FALSE)</f>
-        <v>obj_00004#0000</v>
+        <v>obj_0004c#0000</v>
       </c>
       <c r="H38">
         <v>2</v>

--- a/UnitTests/Tests/Leg.xlsx
+++ b/UnitTests/Tests/Leg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Function</t>
   </si>
@@ -189,25 +189,13 @@
     <t>Payment Date</t>
   </si>
   <si>
-    <t>leg01#0000</t>
-  </si>
-  <si>
-    <t>leg02#0000</t>
-  </si>
-  <si>
-    <t>leg03#0000</t>
-  </si>
-  <si>
-    <t>leg04#0000</t>
-  </si>
-  <si>
     <t>Actual/360</t>
   </si>
   <si>
     <t>No-Frequency</t>
   </si>
   <si>
-    <t>leg05#0000</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -570,7 +558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +615,7 @@
         <v>FAIL</v>
       </c>
       <c r="E3">
-        <f>_xll.qlLegStartDate(E36)</f>
+        <f>_xll.qlLegStartDate(F36)</f>
         <v>42645</v>
       </c>
     </row>
@@ -643,7 +631,7 @@
         <v>FAIL</v>
       </c>
       <c r="E4">
-        <f>_xll.qlLegMaturityDate(E36)</f>
+        <f>_xll.qlLegMaturityDate(F36)</f>
         <v>42647</v>
       </c>
     </row>
@@ -659,7 +647,7 @@
         <v>PASS</v>
       </c>
       <c r="E5" t="b">
-        <f>_xll.qlLegIsExpired(E36)</f>
+        <f>_xll.qlLegIsExpired(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -675,7 +663,7 @@
         <v>PASS</v>
       </c>
       <c r="E6">
-        <f>_xll.qlLegPreviousCashFlowDate(E36)</f>
+        <f>_xll.qlLegPreviousCashFlowDate(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -691,7 +679,7 @@
         <v>FAIL</v>
       </c>
       <c r="E7">
-        <f>_xll.qlLegNextCashFlowDate(E36)</f>
+        <f>_xll.qlLegNextCashFlowDate(F36)</f>
         <v>42645</v>
       </c>
     </row>
@@ -707,7 +695,7 @@
         <v>PASS</v>
       </c>
       <c r="E8">
-        <f>_xll.qlLegPreviousCashFlowAmount(E36)</f>
+        <f>_xll.qlLegPreviousCashFlowAmount(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -723,7 +711,7 @@
         <v>FAIL</v>
       </c>
       <c r="E9">
-        <f>_xll.qlLegNextCashFlowAmount(E36)</f>
+        <f>_xll.qlLegNextCashFlowAmount(F36)</f>
         <v>1</v>
       </c>
     </row>
@@ -739,7 +727,7 @@
         <v>PASS</v>
       </c>
       <c r="E10">
-        <f>_xll.qlLegPreviousCouponRate(E36)</f>
+        <f>_xll.qlLegPreviousCouponRate(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -755,7 +743,7 @@
         <v>ERROR</v>
       </c>
       <c r="E11" t="e">
-        <f>_xll.qlLegNextCouponRate(E36,TRUE,I37)</f>
+        <f>_xll.qlLegNextCouponRate(F36,TRUE,I37)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -771,7 +759,7 @@
         <v>PASS</v>
       </c>
       <c r="E12">
-        <f>_xll.qlLegNominal(E36)</f>
+        <f>_xll.qlLegNominal(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -787,7 +775,7 @@
         <v>PASS</v>
       </c>
       <c r="E13">
-        <f>_xll.qlLegAccrualStartDate(E36)</f>
+        <f>_xll.qlLegAccrualStartDate(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -803,7 +791,7 @@
         <v>PASS</v>
       </c>
       <c r="E14">
-        <f>_xll.qlLegAccrualEndDate(E36)</f>
+        <f>_xll.qlLegAccrualEndDate(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -819,7 +807,7 @@
         <v>PASS</v>
       </c>
       <c r="E15">
-        <f>_xll.qlLegReferencePeriodStart(E36)</f>
+        <f>_xll.qlLegReferencePeriodStart(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -835,7 +823,7 @@
         <v>PASS</v>
       </c>
       <c r="E16">
-        <f>_xll.qlLegReferencePeriodEnd(E36)</f>
+        <f>_xll.qlLegReferencePeriodEnd(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -851,7 +839,7 @@
         <v>PASS</v>
       </c>
       <c r="E17">
-        <f>_xll.qlLegAccrualPeriod(E36)</f>
+        <f>_xll.qlLegAccrualPeriod(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -867,7 +855,7 @@
         <v>PASS</v>
       </c>
       <c r="E18">
-        <f>_xll.qlLegAccrualDays(E36)</f>
+        <f>_xll.qlLegAccrualDays(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -883,7 +871,7 @@
         <v>PASS</v>
       </c>
       <c r="E19">
-        <f>_xll.qlLegAccruedPeriod(E36)</f>
+        <f>_xll.qlLegAccruedPeriod(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -899,7 +887,7 @@
         <v>PASS</v>
       </c>
       <c r="E20">
-        <f>_xll.qlLegAccruedDays(E36)</f>
+        <f>_xll.qlLegAccruedDays(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -915,7 +903,7 @@
         <v>PASS</v>
       </c>
       <c r="E21">
-        <f>_xll.qlLegAccruedAmount(E36)</f>
+        <f>_xll.qlLegAccruedAmount(F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -931,12 +919,12 @@
         <v>FAIL</v>
       </c>
       <c r="E22">
-        <f>_xll.qlLegNPV(E36,G22,,I39)</f>
+        <f>_xll.qlLegNPV(F36,G22,,I39)</f>
         <v>3</v>
       </c>
       <c r="G22" t="str">
         <f>_xll.qlFlatForward(,2,"target",1,"actual/360","continuous","annual")</f>
-        <v>obj_00048#0000</v>
+        <v>obj_00001#0003</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,7 +939,7 @@
         <v>PASS</v>
       </c>
       <c r="E23">
-        <f>_xll.qlLegBPS(E36,G22,TRUE,I39,I39)</f>
+        <f>_xll.qlLegBPS(F36,G22,TRUE,I39,I39)</f>
         <v>0</v>
       </c>
     </row>
@@ -967,7 +955,7 @@
         <v>PASS</v>
       </c>
       <c r="E24">
-        <f>_xll.qlLegAtmRate(E36,G22,,I39,I38)</f>
+        <f>_xll.qlLegAtmRate(F36,G22,,I39,I38)</f>
         <v>0</v>
       </c>
     </row>
@@ -983,7 +971,7 @@
         <v>FAIL</v>
       </c>
       <c r="E25">
-        <f>_xll.qlLegNPVFromYield(E36,5,"actual/360","compounded","annual",TRUE,+I39,I39)</f>
+        <f>_xll.qlLegNPVFromYield(F36,5,"actual/360","compounded","annual",TRUE,+I39,I39)</f>
         <v>3</v>
       </c>
     </row>
@@ -999,7 +987,7 @@
         <v>PASS</v>
       </c>
       <c r="E26">
-        <f>_xll.qlLegBPSFromYield(E36,5,,,,,I38,I39)</f>
+        <f>_xll.qlLegBPSFromYield(F36,5,,,,,I38,I39)</f>
         <v>0</v>
       </c>
     </row>
@@ -1015,7 +1003,7 @@
         <v>FAIL</v>
       </c>
       <c r="E27">
-        <f>_xll.qlLegYield(E36,5,"actual/360","continuous","annual",TRUE,I39,I38,0.0000000001,100,0.05)</f>
+        <f>_xll.qlLegYield(F36,5,"actual/360","continuous","annual",TRUE,I39,I38,0.0000000001,100,0.05)</f>
         <v>-183.89722455577379</v>
       </c>
     </row>
@@ -1031,7 +1019,7 @@
         <v>FAIL</v>
       </c>
       <c r="E28">
-        <f>_xll.qlLegDuration(E36,5,,,,,,I39,I38)</f>
+        <f>_xll.qlLegDuration(F36,5,,,,,,I39,I38)</f>
         <v>4.5537340619307881E-4</v>
       </c>
     </row>
@@ -1047,7 +1035,7 @@
         <v>FAIL</v>
       </c>
       <c r="E29">
-        <f>_xll.qlLegConvexity(E36,5,,,,,I39,I38)</f>
+        <f>_xll.qlLegConvexity(F36,5,,,,,I39,I38)</f>
         <v>7.6102932637914364E-5</v>
       </c>
     </row>
@@ -1063,7 +1051,7 @@
         <v>FAIL</v>
       </c>
       <c r="E30">
-        <f>_xll.qlLegBasisPointValue(E36,5,,,,,I39,I38)</f>
+        <f>_xll.qlLegBasisPointValue(F36,5,,,,,I39,I38)</f>
         <v>-1.3594485829067323E-7</v>
       </c>
     </row>
@@ -1079,7 +1067,7 @@
         <v>FAIL</v>
       </c>
       <c r="E31">
-        <f>_xll.qlLegYieldValueBasisPoint(E36,5,,,,,I39,I38)</f>
+        <f>_xll.qlLegYieldValueBasisPoint(F36,5,,,,,I39,I38)</f>
         <v>-7.3559230485996778</v>
       </c>
     </row>
@@ -1095,7 +1083,7 @@
         <v>FAIL</v>
       </c>
       <c r="E32">
-        <f>_xll.qlLegNPVFromZSpread(E36,G22,5,,,,,I39,I39)</f>
+        <f>_xll.qlLegNPVFromZSpread(F36,G22,5,,,,,I39,I39)</f>
         <v>3</v>
       </c>
     </row>
@@ -1111,7 +1099,7 @@
         <v>ERROR</v>
       </c>
       <c r="E33" t="e">
-        <f>_xll.qlLegZSpread(E36,5,G22,,,,,I39,I38)</f>
+        <f>_xll.qlLegZSpread(F36,5,G22,,,,,I39,I38)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -1127,7 +1115,7 @@
         <v>FAIL</v>
       </c>
       <c r="E34" t="str">
-        <f>_xll.qlLegFlowAnalysis(E36)</f>
+        <f>_xll.qlLegFlowAnalysis(F36)</f>
         <v>Payment Date</v>
       </c>
     </row>
@@ -1154,16 +1142,20 @@
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
-        <v>56</v>
+      <c r="B36" t="b">
+        <v>0</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E36" t="str">
-        <f>_xll.qlLeg("leg01",H37:H39,I37:I39)</f>
-        <v>leg01#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E36" t="b">
+        <f>ISERROR(F36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <f>_xll.qlLeg(,H37:H39,I37:I39)</f>
+        <v>obj_00002#0003</v>
       </c>
       <c r="I36" s="4">
         <f>_xll.qlSettingsEvaluationDate()</f>
@@ -1174,20 +1166,24 @@
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
-        <v>57</v>
+      <c r="B37" t="b">
+        <v>0</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E37" t="str">
-        <f>_xll.qlLegFromCapFloor("leg02",F37)</f>
-        <v>leg02#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E37" t="b">
+        <f>ISERROR(F37)</f>
+        <v>0</v>
       </c>
       <c r="F37" t="str">
-        <f>_xll.qlCapFloor(,"cap",E36,H37:H39)</f>
-        <v>obj_0004b#0000</v>
+        <f>_xll.qlLegFromCapFloor(,G37)</f>
+        <v>obj_00007#0005</v>
+      </c>
+      <c r="G37" t="str">
+        <f>_xll.qlCapFloor(,"cap",F36,H37:H39)</f>
+        <v>obj_00006#0003</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1201,20 +1197,24 @@
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="s">
-        <v>58</v>
+      <c r="B38" t="b">
+        <v>0</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E38" t="str">
-        <f>_xll.qlLegFromSwap("leg03",F38,0)</f>
-        <v>leg03#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E38" t="b">
+        <f>ISERROR(F38)</f>
+        <v>0</v>
       </c>
       <c r="F38" t="str">
-        <f>_xll.qlSwap(,E36,FALSE)</f>
-        <v>obj_0004c#0000</v>
+        <f>_xll.qlLegFromSwap(,G38,0)</f>
+        <v>obj_00005#0003</v>
+      </c>
+      <c r="G38" t="str">
+        <f>_xll.qlSwap(,F36,FALSE)</f>
+        <v>obj_00004#0003</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -1228,16 +1228,20 @@
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="s">
-        <v>59</v>
+      <c r="B39" t="b">
+        <v>0</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E39" t="str">
-        <f>_xll.qlMultiPhaseLeg("leg04",E36)</f>
-        <v>leg04#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E39" t="b">
+        <f>ISERROR(F39)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" t="str">
+        <f>_xll.qlMultiPhaseLeg(,F36)</f>
+        <v>obj_00003#0003</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -1259,7 +1263,7 @@
         <v>FAIL</v>
       </c>
       <c r="E40">
-        <f>_xll.qlInterestRateRate(E48)</f>
+        <f>_xll.qlInterestRateRate(F48)</f>
         <v>5</v>
       </c>
     </row>
@@ -1268,14 +1272,14 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E41" t="str">
-        <f>_xll.qlInterestRateDayCounter(E48)</f>
+        <f>_xll.qlInterestRateDayCounter(F48)</f>
         <v>Actual/360</v>
       </c>
     </row>
@@ -1283,15 +1287,15 @@
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>58</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E42" t="str">
-        <f>_xll.qlInterestRateCompounding(E48)</f>
+        <f>_xll.qlInterestRateCompounding(F48)</f>
         <v>0</v>
       </c>
     </row>
@@ -1300,14 +1304,14 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E43" t="str">
-        <f>_xll.qlInterestRateFrequency(E48)</f>
+        <f>_xll.qlInterestRateFrequency(F48)</f>
         <v>No-Frequency</v>
       </c>
     </row>
@@ -1323,7 +1327,7 @@
         <v>FAIL</v>
       </c>
       <c r="E44">
-        <f>_xll.qlInterestRateDiscountFactor(E48,I37,I39)</f>
+        <f>_xll.qlInterestRateDiscountFactor(F48,I37,I39)</f>
         <v>0.97297297297297303</v>
       </c>
     </row>
@@ -1339,7 +1343,7 @@
         <v>FAIL</v>
       </c>
       <c r="E45">
-        <f>_xll.qlInterestRateCompoundFactor(E48,I37,I39)</f>
+        <f>_xll.qlInterestRateCompoundFactor(F48,I37,I39)</f>
         <v>1.0277777777777777</v>
       </c>
     </row>
@@ -1355,7 +1359,7 @@
         <v>FAIL</v>
       </c>
       <c r="E46">
-        <f>_xll.qlInterestRateEquivalentRate(E48,"actual/360","simple","annual",I37,I39)</f>
+        <f>_xll.qlInterestRateEquivalentRate(F48,"actual/360","simple","annual",I37,I39)</f>
         <v>4.9999999999999822</v>
       </c>
     </row>
@@ -1379,16 +1383,20 @@
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="s">
-        <v>62</v>
+      <c r="B48" t="b">
+        <v>0</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E48" t="str">
-        <f>_xll.qlInterestRate("leg05",5,"actual/360","simple","annual")</f>
-        <v>leg05#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E48" t="b">
+        <f>ISERROR(F48)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" t="str">
+        <f>_xll.qlInterestRate(,5,"actual/360","simple","annual")</f>
+        <v>obj_00000#0003</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/Tests/Leg.xlsx
+++ b/UnitTests/Tests/Leg.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -201,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yyyy;@"/>
   </numFmts>
@@ -262,12 +267,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -309,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,9 +350,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I48"/>
   <sheetViews>
@@ -561,7 +603,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -614,9 +656,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3">
-        <f>_xll.qlLegStartDate(F36)</f>
-        <v>42645</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlLegStartDate(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,9 +672,9 @@
         <f t="shared" ref="D4:D48" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4">
-        <f>_xll.qlLegMaturityDate(F36)</f>
-        <v>42647</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlLegMaturityDate(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,9 +688,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E5" t="b">
-        <f>_xll.qlLegIsExpired(F36)</f>
-        <v>0</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlLegIsExpired(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,9 +704,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6">
-        <f>_xll.qlLegPreviousCashFlowDate(F36)</f>
-        <v>0</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlLegPreviousCashFlowDate(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -678,9 +720,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7">
-        <f>_xll.qlLegNextCashFlowDate(F36)</f>
-        <v>42645</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlLegNextCashFlowDate(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,9 +736,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E8">
-        <f>_xll.qlLegPreviousCashFlowAmount(F36)</f>
-        <v>0</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlLegPreviousCashFlowAmount(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,9 +752,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E9">
-        <f>_xll.qlLegNextCashFlowAmount(F36)</f>
-        <v>1</v>
+      <c r="E9" t="e">
+        <f ca="1">_xll.qlLegNextCashFlowAmount(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,9 +768,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E10">
-        <f>_xll.qlLegPreviousCouponRate(F36)</f>
-        <v>0</v>
+      <c r="E10" t="e">
+        <f ca="1">_xll.qlLegPreviousCouponRate(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,8 +785,8 @@
         <v>ERROR</v>
       </c>
       <c r="E11" t="e">
-        <f>_xll.qlLegNextCouponRate(F36,TRUE,I37)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlLegNextCouponRate(F36,TRUE,I37)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,9 +800,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E12">
-        <f>_xll.qlLegNominal(F36)</f>
-        <v>0</v>
+      <c r="E12" t="e">
+        <f ca="1">_xll.qlLegNominal(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,9 +816,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E13">
-        <f>_xll.qlLegAccrualStartDate(F36)</f>
-        <v>0</v>
+      <c r="E13" t="e">
+        <f ca="1">_xll.qlLegAccrualStartDate(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,9 +832,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E14">
-        <f>_xll.qlLegAccrualEndDate(F36)</f>
-        <v>0</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlLegAccrualEndDate(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -806,9 +848,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E15">
-        <f>_xll.qlLegReferencePeriodStart(F36)</f>
-        <v>0</v>
+      <c r="E15" t="e">
+        <f ca="1">_xll.qlLegReferencePeriodStart(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,9 +864,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E16">
-        <f>_xll.qlLegReferencePeriodEnd(F36)</f>
-        <v>0</v>
+      <c r="E16" t="e">
+        <f ca="1">_xll.qlLegReferencePeriodEnd(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,9 +880,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E17">
-        <f>_xll.qlLegAccrualPeriod(F36)</f>
-        <v>0</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlLegAccrualPeriod(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,9 +896,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E18">
-        <f>_xll.qlLegAccrualDays(F36)</f>
-        <v>0</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlLegAccrualDays(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,9 +912,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E19">
-        <f>_xll.qlLegAccruedPeriod(F36)</f>
-        <v>0</v>
+      <c r="E19" t="e">
+        <f ca="1">_xll.qlLegAccruedPeriod(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -886,9 +928,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E20">
-        <f>_xll.qlLegAccruedDays(F36)</f>
-        <v>0</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlLegAccruedDays(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -902,9 +944,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E21">
-        <f>_xll.qlLegAccruedAmount(F36)</f>
-        <v>0</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlLegAccruedAmount(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -918,13 +960,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E22">
-        <f>_xll.qlLegNPV(F36,G22,,I39)</f>
-        <v>3</v>
-      </c>
-      <c r="G22" t="str">
-        <f>_xll.qlFlatForward(,2,"target",1,"actual/360","continuous","annual")</f>
-        <v>obj_00001#0003</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlLegNPV(F36,G22,,I39)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" t="e">
+        <f ca="1">_xll.qlFlatForward(,2,"target",1,"actual/360","continuous","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,9 +980,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E23">
-        <f>_xll.qlLegBPS(F36,G22,TRUE,I39,I39)</f>
-        <v>0</v>
+      <c r="E23" t="e">
+        <f ca="1">_xll.qlLegBPS(F36,G22,TRUE,I39,I39)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,9 +996,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E24">
-        <f>_xll.qlLegAtmRate(F36,G22,,I39,I38)</f>
-        <v>0</v>
+      <c r="E24" t="e">
+        <f ca="1">_xll.qlLegAtmRate(F36,G22,,I39,I38)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -970,9 +1012,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E25">
-        <f>_xll.qlLegNPVFromYield(F36,5,"actual/360","compounded","annual",TRUE,+I39,I39)</f>
-        <v>3</v>
+      <c r="E25" t="e">
+        <f ca="1">_xll.qlLegNPVFromYield(F36,5,"actual/360","compounded","annual",TRUE,+I39,I39)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,9 +1028,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E26">
-        <f>_xll.qlLegBPSFromYield(F36,5,,,,,I38,I39)</f>
-        <v>0</v>
+      <c r="E26" t="e">
+        <f ca="1">_xll.qlLegBPSFromYield(F36,5,,,,,I38,I39)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,9 +1044,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E27">
-        <f>_xll.qlLegYield(F36,5,"actual/360","continuous","annual",TRUE,I39,I38,0.0000000001,100,0.05)</f>
-        <v>-183.89722455577379</v>
+      <c r="E27" t="e">
+        <f ca="1">_xll.qlLegYield(F36,5,"actual/360","continuous","annual",TRUE,I39,I38,0.0000000001,100,0.05)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1018,9 +1060,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E28">
-        <f>_xll.qlLegDuration(F36,5,,,,,,I39,I38)</f>
-        <v>4.5537340619307881E-4</v>
+      <c r="E28" t="e">
+        <f ca="1">_xll.qlLegDuration(F36,5,,,,,,I39,I38)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1034,9 +1076,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E29">
-        <f>_xll.qlLegConvexity(F36,5,,,,,I39,I38)</f>
-        <v>7.6102932637914364E-5</v>
+      <c r="E29" t="e">
+        <f ca="1">_xll.qlLegConvexity(F36,5,,,,,I39,I38)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1050,9 +1092,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E30">
-        <f>_xll.qlLegBasisPointValue(F36,5,,,,,I39,I38)</f>
-        <v>-1.3594485829067323E-7</v>
+      <c r="E30" t="e">
+        <f ca="1">_xll.qlLegBasisPointValue(F36,5,,,,,I39,I38)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,9 +1108,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E31">
-        <f>_xll.qlLegYieldValueBasisPoint(F36,5,,,,,I39,I38)</f>
-        <v>-7.3559230485996778</v>
+      <c r="E31" t="e">
+        <f ca="1">_xll.qlLegYieldValueBasisPoint(F36,5,,,,,I39,I38)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,9 +1124,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E32">
-        <f>_xll.qlLegNPVFromZSpread(F36,G22,5,,,,,I39,I39)</f>
-        <v>3</v>
+      <c r="E32" t="e">
+        <f ca="1">_xll.qlLegNPVFromZSpread(F36,G22,5,,,,,I39,I39)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1099,8 +1141,8 @@
         <v>ERROR</v>
       </c>
       <c r="E33" t="e">
-        <f>_xll.qlLegZSpread(F36,5,G22,,,,,I39,I38)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlLegZSpread(F36,5,G22,,,,,I39,I38)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1114,9 +1156,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E34" t="str">
-        <f>_xll.qlLegFlowAnalysis(F36)</f>
-        <v>Payment Date</v>
+      <c r="E34" t="e">
+        <f ca="1">_xll.qlLegFlowAnalysis(F36)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1150,16 +1192,16 @@
         <v>PASS</v>
       </c>
       <c r="E36" t="b">
-        <f>ISERROR(F36)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" t="str">
-        <f>_xll.qlLeg(,H37:H39,I37:I39)</f>
-        <v>obj_00002#0003</v>
-      </c>
-      <c r="I36" s="4">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
+        <f ca="1">ISERROR(F36)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" t="e">
+        <f ca="1">_xll.qlLeg(,H37:H39,I37:I39)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I36" s="4" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1174,23 +1216,23 @@
         <v>PASS</v>
       </c>
       <c r="E37" t="b">
-        <f>ISERROR(F37)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" t="str">
-        <f>_xll.qlLegFromCapFloor(,G37)</f>
-        <v>obj_00007#0005</v>
-      </c>
-      <c r="G37" t="str">
-        <f>_xll.qlCapFloor(,"cap",F36,H37:H39)</f>
-        <v>obj_00006#0003</v>
+        <f ca="1">ISERROR(F37)</f>
+        <v>1</v>
+      </c>
+      <c r="F37" t="e">
+        <f ca="1">_xll.qlLegFromCapFloor(,G37)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G37" t="e">
+        <f ca="1">_xll.qlCapFloor(,"cap",F36,H37:H39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" s="4">
-        <f>I36+1</f>
-        <v>42645</v>
+      <c r="I37" s="4" t="e">
+        <f ca="1">I36+1</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1205,23 +1247,23 @@
         <v>PASS</v>
       </c>
       <c r="E38" t="b">
-        <f>ISERROR(F38)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" t="str">
-        <f>_xll.qlLegFromSwap(,G38,0)</f>
-        <v>obj_00005#0003</v>
-      </c>
-      <c r="G38" t="str">
-        <f>_xll.qlSwap(,F36,FALSE)</f>
-        <v>obj_00004#0003</v>
+        <f ca="1">ISERROR(F38)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" t="e">
+        <f ca="1">_xll.qlLegFromSwap(,G38,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G38" t="e">
+        <f ca="1">_xll.qlSwap(,F36,FALSE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" ref="I38:I39" si="1">I37+1</f>
-        <v>42646</v>
+      <c r="I38" s="4" t="e">
+        <f t="shared" ref="I38:I39" ca="1" si="1">I37+1</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1236,19 +1278,19 @@
         <v>PASS</v>
       </c>
       <c r="E39" t="b">
-        <f>ISERROR(F39)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" t="str">
-        <f>_xll.qlMultiPhaseLeg(,F36)</f>
-        <v>obj_00003#0003</v>
+        <f ca="1">ISERROR(F39)</f>
+        <v>1</v>
+      </c>
+      <c r="F39" t="e">
+        <f ca="1">_xll.qlMultiPhaseLeg(,F36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
-      <c r="I39" s="4">
-        <f t="shared" si="1"/>
-        <v>42647</v>
+      <c r="I39" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1262,9 +1304,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E40">
-        <f>_xll.qlInterestRateRate(F48)</f>
-        <v>5</v>
+      <c r="E40" t="e">
+        <f ca="1">_xll.qlInterestRateRate(F48)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1278,9 +1320,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E41" t="str">
-        <f>_xll.qlInterestRateDayCounter(F48)</f>
-        <v>Actual/360</v>
+      <c r="E41" t="e">
+        <f ca="1">_xll.qlInterestRateDayCounter(F48)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1294,9 +1336,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E42" t="str">
-        <f>_xll.qlInterestRateCompounding(F48)</f>
-        <v>0</v>
+      <c r="E42" t="e">
+        <f ca="1">_xll.qlInterestRateCompounding(F48)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1310,9 +1352,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E43" t="str">
-        <f>_xll.qlInterestRateFrequency(F48)</f>
-        <v>No-Frequency</v>
+      <c r="E43" t="e">
+        <f ca="1">_xll.qlInterestRateFrequency(F48)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1326,9 +1368,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E44">
-        <f>_xll.qlInterestRateDiscountFactor(F48,I37,I39)</f>
-        <v>0.97297297297297303</v>
+      <c r="E44" t="e">
+        <f ca="1">_xll.qlInterestRateDiscountFactor(F48,I37,I39)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1342,9 +1384,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E45">
-        <f>_xll.qlInterestRateCompoundFactor(F48,I37,I39)</f>
-        <v>1.0277777777777777</v>
+      <c r="E45" t="e">
+        <f ca="1">_xll.qlInterestRateCompoundFactor(F48,I37,I39)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1358,9 +1400,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E46">
-        <f>_xll.qlInterestRateEquivalentRate(F48,"actual/360","simple","annual",I37,I39)</f>
-        <v>4.9999999999999822</v>
+      <c r="E46" t="e">
+        <f ca="1">_xll.qlInterestRateEquivalentRate(F48,"actual/360","simple","annual",I37,I39)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1374,9 +1416,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E47">
-        <f>_xll.qlInterestRateImpliedRate(5,"actual/360","simple","annual",I37,I39)</f>
-        <v>720</v>
+      <c r="E47" t="e">
+        <f ca="1">_xll.qlInterestRateImpliedRate(5,"actual/360","simple","annual",I37,I39)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1391,12 +1433,12 @@
         <v>PASS</v>
       </c>
       <c r="E48" t="b">
-        <f>ISERROR(F48)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" t="str">
-        <f>_xll.qlInterestRate(,5,"actual/360","simple","annual")</f>
-        <v>obj_00000#0003</v>
+        <f ca="1">ISERROR(F48)</f>
+        <v>1</v>
+      </c>
+      <c r="F48" t="e">
+        <f ca="1">_xll.qlInterestRate(,5,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1406,26 +1448,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
